--- a/Data/EC/NIT-9003876384.xlsx
+++ b/Data/EC/NIT-9003876384.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5908024-B7B0-4FFB-9D97-F7707C4E3E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2AC67B9-4FDB-4976-ABC7-155A54EED3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FE0CC0FC-F842-4E0E-8CA2-9EBDB0D67CA3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F3ED0CFE-4D01-48BE-8E9D-AFD273E4C717}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="35">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,55 +65,49 @@
     <t>CC</t>
   </si>
   <si>
+    <t>50902350</t>
+  </si>
+  <si>
+    <t>MARIA ESTELA FIGUEROA AVILEZ</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
     <t>1102119828</t>
   </si>
   <si>
     <t>MARLON DAVID AVILEZ BUELVAS</t>
   </si>
   <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>25773819</t>
+  </si>
+  <si>
+    <t>DANYS ESTER PEÑA PEREZ</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
     <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>50902350</t>
-  </si>
-  <si>
-    <t>MARIA ESTELA FIGUEROA AVILEZ</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1047365038</t>
-  </si>
-  <si>
-    <t>KELLYS JOHANA TETTAY VARGAS</t>
-  </si>
-  <si>
-    <t>25773819</t>
-  </si>
-  <si>
-    <t>DANYS ESTER PEÑA PEREZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -212,7 +206,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -225,9 +221,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -427,23 +421,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,10 +465,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2800EBB0-2F0C-2117-F8C0-C88CEE2436AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8BB0E16-94FE-6AC0-1D89-92F6FCA8A6FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,8 +872,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCEEFB2-059C-4E6B-B35E-5B9D412C7835}">
-  <dimension ref="B2:J54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0ADA6E-4FBF-45CD-9136-8D0C2201B04C}">
+  <dimension ref="B2:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -890,7 +884,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -903,7 +897,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -948,7 +942,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -980,12 +974,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1113710</v>
+        <v>842177</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -996,14 +990,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F13" s="5">
         <v>9</v>
@@ -1033,13 +1027,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1056,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>25749</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
         <v>877803</v>
@@ -1070,13 +1064,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>35112</v>
@@ -1099,7 +1093,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>35112</v>
@@ -1116,10 +1110,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
@@ -1139,13 +1133,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>35112</v>
@@ -1168,7 +1162,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>35112</v>
@@ -1185,10 +1179,10 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
@@ -1208,10 +1202,10 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>18</v>
@@ -1231,16 +1225,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
-        <v>25749</v>
+        <v>35112</v>
       </c>
       <c r="G24" s="18">
         <v>877803</v>
@@ -1254,13 +1248,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
@@ -1277,13 +1271,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
@@ -1300,13 +1294,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F27" s="18">
         <v>35112</v>
@@ -1323,13 +1317,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F28" s="18">
         <v>35112</v>
@@ -1346,13 +1340,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
@@ -1369,13 +1363,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F30" s="18">
         <v>35112</v>
@@ -1392,13 +1386,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D31" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F31" s="18">
         <v>35112</v>
@@ -1415,16 +1409,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="18">
-        <v>27578</v>
+        <v>35112</v>
       </c>
       <c r="G32" s="18">
         <v>877803</v>
@@ -1438,16 +1432,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>25749</v>
+        <v>35112</v>
       </c>
       <c r="G33" s="18">
         <v>877803</v>
@@ -1461,13 +1455,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F34" s="18">
         <v>35112</v>
@@ -1484,13 +1478,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F35" s="18">
         <v>35112</v>
@@ -1507,13 +1501,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F36" s="18">
         <v>35112</v>
@@ -1530,13 +1524,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F37" s="18">
         <v>35112</v>
@@ -1553,16 +1547,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F38" s="18">
-        <v>35112</v>
+        <v>25749</v>
       </c>
       <c r="G38" s="18">
         <v>877803</v>
@@ -1576,16 +1570,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F39" s="18">
-        <v>35112</v>
+        <v>25749</v>
       </c>
       <c r="G39" s="18">
         <v>877803</v>
@@ -1595,240 +1589,56 @@
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="17" t="s">
+      <c r="B40" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G40" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="18">
+      <c r="F40" s="24">
         <v>25749</v>
       </c>
-      <c r="G41" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G42" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G43" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G44" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="G40" s="24">
+        <v>877803</v>
+      </c>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G45" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="B45" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="32"/>
+      <c r="H45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G46" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G47" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="24">
-        <v>35112</v>
-      </c>
-      <c r="G48" s="24">
-        <v>877803</v>
-      </c>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="32"/>
-      <c r="H53" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="32" t="s">
+      <c r="B46" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="32"/>
+      <c r="H46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="H54" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H45:J45"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9003876384.xlsx
+++ b/Data/EC/NIT-9003876384.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2AC67B9-4FDB-4976-ABC7-155A54EED3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC57CC76-EEA6-441B-8E79-F59406C7B69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F3ED0CFE-4D01-48BE-8E9D-AFD273E4C717}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0FCD1DB6-FFC8-40E1-951D-FF15643006EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -206,9 +206,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -221,7 +219,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -415,29 +415,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,19 +456,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,7 +527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8BB0E16-94FE-6AC0-1D89-92F6FCA8A6FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BB1D0C-0AA4-9406-B8A5-CD04B78D71AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,7 +878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0ADA6E-4FBF-45CD-9136-8D0C2201B04C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51F91D9-E86B-4938-8B0D-4C24F2AA3F9E}">
   <dimension ref="B2:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -895,49 +901,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -945,7 +951,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -961,7 +967,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9003876384</v>
       </c>
@@ -977,7 +983,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>842177</v>
       </c>
@@ -1046,18 +1052,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>27578</v>
       </c>
-      <c r="G16" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="G16" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1069,18 +1075,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G17" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="F17" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G17" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1092,18 +1098,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G18" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G18" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1115,18 +1121,18 @@
       <c r="D19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G19" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G19" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1138,18 +1144,18 @@
       <c r="D20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G20" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G20" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1161,18 +1167,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G21" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G21" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1184,18 +1190,18 @@
       <c r="D22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G22" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G22" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1207,18 +1213,18 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G23" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G23" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1230,18 +1236,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G24" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G24" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1253,18 +1259,18 @@
       <c r="D25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G25" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G25" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1276,18 +1282,18 @@
       <c r="D26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G26" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G26" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1299,18 +1305,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G27" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G27" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1322,18 +1328,18 @@
       <c r="D28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G28" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G28" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1345,18 +1351,18 @@
       <c r="D29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G29" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G29" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1368,18 +1374,18 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G30" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G30" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1391,18 +1397,18 @@
       <c r="D31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G31" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G31" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1414,18 +1420,18 @@
       <c r="D32" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G32" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G32" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1437,18 +1443,18 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G33" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G33" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1460,18 +1466,18 @@
       <c r="D34" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G34" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G34" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1483,18 +1489,18 @@
       <c r="D35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G35" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G35" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1506,18 +1512,18 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G36" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G36" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1529,18 +1535,18 @@
       <c r="D37" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G37" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G37" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1552,18 +1558,18 @@
       <c r="D38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>25749</v>
       </c>
-      <c r="G38" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="G38" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1575,47 +1581,47 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>25749</v>
       </c>
-      <c r="G39" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="G39" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="22" t="s">
+      <c r="B40" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="26">
         <v>25749</v>
       </c>
-      <c r="G40" s="24">
-        <v>877803</v>
-      </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
+      <c r="G40" s="26">
+        <v>877803</v>
+      </c>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="28"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="32"/>
+      <c r="C45" s="34"/>
       <c r="H45" s="1" t="s">
         <v>33</v>
       </c>
@@ -1623,10 +1629,10 @@
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="32"/>
+      <c r="C46" s="34"/>
       <c r="H46" s="1" t="s">
         <v>34</v>
       </c>
